--- a/datasets/loinc.xlsx
+++ b/datasets/loinc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoleuzzi/Documents/GitHub/BioInformatics-AdaRank/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9A4D43-8CC5-5D43-8C65-9494C23B0DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA0B051-E132-2D46-8CBF-3A43665EDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose in blood" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="228">
   <si>
     <t>14749-6</t>
   </si>
@@ -1079,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
@@ -2267,21 +2267,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2297,8 +2299,11 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2332,7 +2337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2349,7 +2354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -2400,7 +2405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2451,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -2468,7 +2473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3448,10 +3453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3459,12 +3464,12 @@
     <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3480,8 +3485,11 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -3515,7 +3523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -3549,7 +3557,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -3566,7 +3574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3651,7 +3659,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3668,7 +3676,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +3693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
